--- a/data/posts_data_clean.xlsx
+++ b/data/posts_data_clean.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P558"/>
+  <dimension ref="A1:Q558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,6 +445,11 @@
           <t>post_id</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -615,6 +620,11 @@
       <c r="P4">
         <v>3</v>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -675,6 +685,11 @@
       <c r="P5">
         <v>4</v>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -735,6 +750,11 @@
       <c r="P6">
         <v>5</v>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -795,6 +815,11 @@
       <c r="P7">
         <v>6</v>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -910,6 +935,11 @@
       <c r="P9">
         <v>8</v>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -1300,6 +1330,11 @@
       <c r="P16">
         <v>15</v>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1415,6 +1450,11 @@
       <c r="P18">
         <v>17</v>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -1585,6 +1625,11 @@
       <c r="P21">
         <v>20</v>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1700,6 +1745,11 @@
       <c r="P23">
         <v>22</v>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1760,6 +1810,11 @@
       <c r="P24">
         <v>23</v>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -2040,6 +2095,11 @@
       <c r="P29">
         <v>28</v>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -2100,6 +2160,11 @@
       <c r="P30">
         <v>29</v>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -2325,6 +2390,11 @@
       <c r="P34">
         <v>33</v>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
@@ -2605,6 +2675,11 @@
       <c r="P39">
         <v>38</v>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
@@ -2665,6 +2740,11 @@
       <c r="P40">
         <v>39</v>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
@@ -2725,6 +2805,11 @@
       <c r="P41">
         <v>40</v>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
@@ -2785,6 +2870,11 @@
       <c r="P42">
         <v>41</v>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
@@ -2845,6 +2935,11 @@
       <c r="P43">
         <v>42</v>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
@@ -2905,6 +3000,11 @@
       <c r="P44">
         <v>43</v>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
@@ -2965,6 +3065,11 @@
       <c r="P45">
         <v>44</v>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
@@ -3080,6 +3185,11 @@
       <c r="P47">
         <v>46</v>
       </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
@@ -3140,6 +3250,11 @@
       <c r="P48">
         <v>47</v>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -3200,6 +3315,11 @@
       <c r="P49">
         <v>48</v>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
@@ -3260,6 +3380,11 @@
       <c r="P50">
         <v>49</v>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
@@ -3320,6 +3445,11 @@
       <c r="P51">
         <v>50</v>
       </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
@@ -3380,6 +3510,11 @@
       <c r="P52">
         <v>51</v>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
@@ -3440,6 +3575,11 @@
       <c r="P53">
         <v>52</v>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
@@ -3500,6 +3640,11 @@
       <c r="P54">
         <v>53</v>
       </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -3560,6 +3705,11 @@
       <c r="P55">
         <v>54</v>
       </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
@@ -3620,6 +3770,11 @@
       <c r="P56">
         <v>55</v>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -3680,6 +3835,11 @@
       <c r="P57">
         <v>56</v>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
@@ -3740,6 +3900,11 @@
       <c r="P58">
         <v>57</v>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
@@ -3800,6 +3965,11 @@
       <c r="P59">
         <v>58</v>
       </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
@@ -3860,6 +4030,11 @@
       <c r="P60">
         <v>59</v>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
@@ -3920,6 +4095,11 @@
       <c r="P61">
         <v>60</v>
       </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
@@ -4035,6 +4215,11 @@
       <c r="P63">
         <v>62</v>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
@@ -4095,6 +4280,11 @@
       <c r="P64">
         <v>63</v>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
@@ -4155,6 +4345,11 @@
       <c r="P65">
         <v>64</v>
       </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
@@ -4380,6 +4575,11 @@
       <c r="P69">
         <v>68</v>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
@@ -4605,6 +4805,11 @@
       <c r="P73">
         <v>72</v>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -4665,6 +4870,11 @@
       <c r="P74">
         <v>73</v>
       </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -4725,6 +4935,11 @@
       <c r="P75">
         <v>74</v>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
@@ -4950,6 +5165,11 @@
       <c r="P79">
         <v>78</v>
       </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
@@ -5065,6 +5285,11 @@
       <c r="P81">
         <v>80</v>
       </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
@@ -5180,6 +5405,11 @@
       <c r="P83">
         <v>82</v>
       </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
@@ -5240,6 +5470,11 @@
       <c r="P84">
         <v>83</v>
       </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -5300,6 +5535,11 @@
       <c r="P85">
         <v>84</v>
       </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
@@ -5360,6 +5600,11 @@
       <c r="P86">
         <v>85</v>
       </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -5420,6 +5665,11 @@
       <c r="P87">
         <v>86</v>
       </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
@@ -5480,6 +5730,11 @@
       <c r="P88">
         <v>87</v>
       </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
@@ -5540,6 +5795,11 @@
       <c r="P89">
         <v>88</v>
       </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
@@ -5600,6 +5860,11 @@
       <c r="P90">
         <v>89</v>
       </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
@@ -5660,6 +5925,11 @@
       <c r="P91">
         <v>90</v>
       </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
@@ -5720,6 +5990,11 @@
       <c r="P92">
         <v>91</v>
       </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
@@ -5780,6 +6055,11 @@
       <c r="P93">
         <v>92</v>
       </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
@@ -5840,6 +6120,11 @@
       <c r="P94">
         <v>93</v>
       </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
@@ -5900,6 +6185,11 @@
       <c r="P95">
         <v>94</v>
       </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
@@ -5960,6 +6250,11 @@
       <c r="P96">
         <v>95</v>
       </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
@@ -6020,6 +6315,11 @@
       <c r="P97">
         <v>96</v>
       </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
@@ -6080,6 +6380,11 @@
       <c r="P98">
         <v>97</v>
       </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
@@ -6140,6 +6445,11 @@
       <c r="P99">
         <v>98</v>
       </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
@@ -6200,6 +6510,11 @@
       <c r="P100">
         <v>99</v>
       </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
@@ -6260,6 +6575,11 @@
       <c r="P101">
         <v>100</v>
       </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
@@ -6320,6 +6640,11 @@
       <c r="P102">
         <v>101</v>
       </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
@@ -6380,6 +6705,11 @@
       <c r="P103">
         <v>102</v>
       </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
@@ -6495,6 +6825,11 @@
       <c r="P105">
         <v>104</v>
       </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
@@ -6610,6 +6945,11 @@
       <c r="P107">
         <v>106</v>
       </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
@@ -6670,6 +7010,11 @@
       <c r="P108">
         <v>107</v>
       </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
@@ -6730,6 +7075,11 @@
       <c r="P109">
         <v>108</v>
       </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
@@ -6790,6 +7140,11 @@
       <c r="P110">
         <v>109</v>
       </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
@@ -6850,6 +7205,11 @@
       <c r="P111">
         <v>110</v>
       </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
@@ -7020,6 +7380,11 @@
       <c r="P114">
         <v>113</v>
       </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
@@ -7080,6 +7445,11 @@
       <c r="P115">
         <v>114</v>
       </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
@@ -7140,6 +7510,11 @@
       <c r="P116">
         <v>115</v>
       </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
@@ -7200,6 +7575,11 @@
       <c r="P117">
         <v>116</v>
       </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
@@ -7315,6 +7695,11 @@
       <c r="P119">
         <v>118</v>
       </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
@@ -7375,6 +7760,11 @@
       <c r="P120">
         <v>119</v>
       </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
@@ -7655,6 +8045,11 @@
       <c r="P125">
         <v>124</v>
       </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
@@ -7715,6 +8110,11 @@
       <c r="P126">
         <v>125</v>
       </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
@@ -7775,6 +8175,11 @@
       <c r="P127">
         <v>126</v>
       </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
@@ -7890,6 +8295,11 @@
       <c r="P129">
         <v>128</v>
       </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
@@ -8005,6 +8415,11 @@
       <c r="P131">
         <v>130</v>
       </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
@@ -8065,6 +8480,11 @@
       <c r="P132">
         <v>131</v>
       </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
@@ -8125,6 +8545,11 @@
       <c r="P133">
         <v>132</v>
       </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
@@ -8185,6 +8610,11 @@
       <c r="P134">
         <v>133</v>
       </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
@@ -8245,6 +8675,11 @@
       <c r="P135">
         <v>134</v>
       </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
@@ -8635,6 +9070,11 @@
       <c r="P142">
         <v>141</v>
       </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
@@ -8695,6 +9135,11 @@
       <c r="P143">
         <v>142</v>
       </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
@@ -8920,6 +9365,11 @@
       <c r="P147">
         <v>146</v>
       </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
@@ -8980,6 +9430,11 @@
       <c r="P148">
         <v>147</v>
       </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
@@ -9040,6 +9495,11 @@
       <c r="P149">
         <v>148</v>
       </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
@@ -9100,6 +9560,11 @@
       <c r="P150">
         <v>149</v>
       </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
@@ -9160,6 +9625,11 @@
       <c r="P151">
         <v>150</v>
       </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
@@ -9220,6 +9690,11 @@
       <c r="P152">
         <v>151</v>
       </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
@@ -9280,6 +9755,11 @@
       <c r="P153">
         <v>152</v>
       </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
@@ -9340,6 +9820,11 @@
       <c r="P154">
         <v>153</v>
       </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
@@ -9400,6 +9885,11 @@
       <c r="P155">
         <v>154</v>
       </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
@@ -9460,6 +9950,11 @@
       <c r="P156">
         <v>155</v>
       </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
@@ -9520,6 +10015,11 @@
       <c r="P157">
         <v>156</v>
       </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
@@ -9580,6 +10080,11 @@
       <c r="P158">
         <v>157</v>
       </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
@@ -9640,6 +10145,11 @@
       <c r="P159">
         <v>158</v>
       </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
@@ -9700,6 +10210,11 @@
       <c r="P160">
         <v>159</v>
       </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
@@ -9760,6 +10275,11 @@
       <c r="P161">
         <v>160</v>
       </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
@@ -9820,6 +10340,11 @@
       <c r="P162">
         <v>161</v>
       </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
@@ -9880,6 +10405,11 @@
       <c r="P163">
         <v>162</v>
       </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
@@ -9940,6 +10470,11 @@
       <c r="P164">
         <v>163</v>
       </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
@@ -10000,6 +10535,11 @@
       <c r="P165">
         <v>164</v>
       </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
@@ -10060,6 +10600,11 @@
       <c r="P166">
         <v>165</v>
       </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
@@ -10120,6 +10665,11 @@
       <c r="P167">
         <v>166</v>
       </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
@@ -10235,6 +10785,11 @@
       <c r="P169">
         <v>168</v>
       </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
@@ -10295,6 +10850,11 @@
       <c r="P170">
         <v>169</v>
       </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
@@ -10410,6 +10970,11 @@
       <c r="P172">
         <v>171</v>
       </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
@@ -10470,6 +11035,11 @@
       <c r="P173">
         <v>172</v>
       </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
@@ -10585,6 +11155,11 @@
       <c r="P175">
         <v>174</v>
       </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
@@ -10645,6 +11220,11 @@
       <c r="P176">
         <v>175</v>
       </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
@@ -10705,6 +11285,11 @@
       <c r="P177">
         <v>176</v>
       </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
@@ -10765,6 +11350,11 @@
       <c r="P178">
         <v>177</v>
       </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
@@ -10825,6 +11415,11 @@
       <c r="P179">
         <v>178</v>
       </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
@@ -10885,6 +11480,11 @@
       <c r="P180">
         <v>179</v>
       </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
@@ -10945,6 +11545,11 @@
       <c r="P181">
         <v>180</v>
       </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
@@ -11005,6 +11610,11 @@
       <c r="P182">
         <v>181</v>
       </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
@@ -11065,6 +11675,11 @@
       <c r="P183">
         <v>182</v>
       </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
@@ -11125,6 +11740,11 @@
       <c r="P184">
         <v>183</v>
       </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
@@ -11185,6 +11805,11 @@
       <c r="P185">
         <v>184</v>
       </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
@@ -11300,6 +11925,11 @@
       <c r="P187">
         <v>186</v>
       </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
@@ -11360,6 +11990,11 @@
       <c r="P188">
         <v>187</v>
       </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
@@ -11420,6 +12055,11 @@
       <c r="P189">
         <v>188</v>
       </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
@@ -11480,6 +12120,11 @@
       <c r="P190">
         <v>189</v>
       </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
@@ -11540,6 +12185,11 @@
       <c r="P191">
         <v>190</v>
       </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
@@ -11600,6 +12250,11 @@
       <c r="P192">
         <v>191</v>
       </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
@@ -11660,6 +12315,11 @@
       <c r="P193">
         <v>192</v>
       </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
@@ -11720,6 +12380,11 @@
       <c r="P194">
         <v>193</v>
       </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
@@ -11780,6 +12445,11 @@
       <c r="P195">
         <v>194</v>
       </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
@@ -11840,6 +12510,11 @@
       <c r="P196">
         <v>195</v>
       </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
@@ -11900,6 +12575,11 @@
       <c r="P197">
         <v>196</v>
       </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
@@ -11960,6 +12640,11 @@
       <c r="P198">
         <v>197</v>
       </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
@@ -12020,6 +12705,11 @@
       <c r="P199">
         <v>198</v>
       </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
@@ -12080,6 +12770,11 @@
       <c r="P200">
         <v>199</v>
       </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
@@ -12140,6 +12835,11 @@
       <c r="P201">
         <v>200</v>
       </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
@@ -12200,6 +12900,11 @@
       <c r="P202">
         <v>201</v>
       </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
@@ -12260,6 +12965,11 @@
       <c r="P203">
         <v>202</v>
       </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
@@ -12320,6 +13030,11 @@
       <c r="P204">
         <v>203</v>
       </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
@@ -12380,6 +13095,11 @@
       <c r="P205">
         <v>204</v>
       </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
@@ -12440,6 +13160,11 @@
       <c r="P206">
         <v>205</v>
       </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
@@ -12500,6 +13225,11 @@
       <c r="P207">
         <v>206</v>
       </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
@@ -12560,6 +13290,11 @@
       <c r="P208">
         <v>207</v>
       </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
@@ -12620,6 +13355,11 @@
       <c r="P209">
         <v>208</v>
       </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
@@ -12680,6 +13420,11 @@
       <c r="P210">
         <v>209</v>
       </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
@@ -12740,6 +13485,11 @@
       <c r="P211">
         <v>210</v>
       </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
@@ -12800,6 +13550,11 @@
       <c r="P212">
         <v>211</v>
       </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
@@ -12860,6 +13615,11 @@
       <c r="P213">
         <v>212</v>
       </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
@@ -12920,6 +13680,11 @@
       <c r="P214">
         <v>213</v>
       </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
@@ -13090,6 +13855,11 @@
       <c r="P217">
         <v>216</v>
       </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
@@ -13150,6 +13920,11 @@
       <c r="P218">
         <v>217</v>
       </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
@@ -13210,6 +13985,11 @@
       <c r="P219">
         <v>218</v>
       </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
@@ -13270,6 +14050,11 @@
       <c r="P220">
         <v>219</v>
       </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
@@ -13330,6 +14115,11 @@
       <c r="P221">
         <v>220</v>
       </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
@@ -13390,6 +14180,11 @@
       <c r="P222">
         <v>221</v>
       </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
@@ -13450,6 +14245,11 @@
       <c r="P223">
         <v>222</v>
       </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
@@ -13510,6 +14310,11 @@
       <c r="P224">
         <v>223</v>
       </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
@@ -13625,6 +14430,11 @@
       <c r="P226">
         <v>225</v>
       </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
@@ -13685,6 +14495,11 @@
       <c r="P227">
         <v>226</v>
       </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
@@ -13800,6 +14615,11 @@
       <c r="P229">
         <v>228</v>
       </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
@@ -13860,6 +14680,11 @@
       <c r="P230">
         <v>229</v>
       </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
@@ -13920,6 +14745,11 @@
       <c r="P231">
         <v>230</v>
       </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
@@ -13980,6 +14810,11 @@
       <c r="P232">
         <v>231</v>
       </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
@@ -14040,6 +14875,11 @@
       <c r="P233">
         <v>232</v>
       </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
@@ -14155,6 +14995,11 @@
       <c r="P235">
         <v>234</v>
       </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
@@ -14325,6 +15170,11 @@
       <c r="P238">
         <v>237</v>
       </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
@@ -14440,6 +15290,11 @@
       <c r="P240">
         <v>239</v>
       </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
@@ -14500,6 +15355,11 @@
       <c r="P241">
         <v>240</v>
       </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
@@ -14560,6 +15420,11 @@
       <c r="P242">
         <v>241</v>
       </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
@@ -14620,6 +15485,11 @@
       <c r="P243">
         <v>242</v>
       </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
@@ -14680,6 +15550,11 @@
       <c r="P244">
         <v>243</v>
       </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
@@ -14740,6 +15615,11 @@
       <c r="P245">
         <v>244</v>
       </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
@@ -14800,6 +15680,11 @@
       <c r="P246">
         <v>245</v>
       </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
@@ -14860,6 +15745,11 @@
       <c r="P247">
         <v>246</v>
       </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
@@ -14920,6 +15810,11 @@
       <c r="P248">
         <v>247</v>
       </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
@@ -14980,6 +15875,11 @@
       <c r="P249">
         <v>248</v>
       </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
@@ -15095,6 +15995,11 @@
       <c r="P251">
         <v>250</v>
       </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
@@ -15155,6 +16060,11 @@
       <c r="P252">
         <v>251</v>
       </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
@@ -15270,6 +16180,11 @@
       <c r="P254">
         <v>253</v>
       </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
@@ -15330,6 +16245,11 @@
       <c r="P255">
         <v>254</v>
       </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
@@ -15390,6 +16310,11 @@
       <c r="P256">
         <v>255</v>
       </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
@@ -15450,6 +16375,11 @@
       <c r="P257">
         <v>256</v>
       </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
@@ -15510,6 +16440,11 @@
       <c r="P258">
         <v>257</v>
       </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
@@ -15570,6 +16505,11 @@
       <c r="P259">
         <v>258</v>
       </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
@@ -15630,6 +16570,11 @@
       <c r="P260">
         <v>259</v>
       </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
@@ -15690,6 +16635,11 @@
       <c r="P261">
         <v>260</v>
       </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
@@ -15750,6 +16700,11 @@
       <c r="P262">
         <v>261</v>
       </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
@@ -15865,6 +16820,11 @@
       <c r="P264">
         <v>263</v>
       </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
@@ -15925,6 +16885,11 @@
       <c r="P265">
         <v>264</v>
       </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
@@ -16040,6 +17005,11 @@
       <c r="P267">
         <v>266</v>
       </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
@@ -16100,6 +17070,11 @@
       <c r="P268">
         <v>267</v>
       </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
@@ -16160,6 +17135,11 @@
       <c r="P269">
         <v>268</v>
       </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
@@ -16220,6 +17200,11 @@
       <c r="P270">
         <v>269</v>
       </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
@@ -16280,6 +17265,11 @@
       <c r="P271">
         <v>270</v>
       </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
@@ -16340,6 +17330,11 @@
       <c r="P272">
         <v>271</v>
       </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
@@ -16455,6 +17450,11 @@
       <c r="P274">
         <v>273</v>
       </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
@@ -16570,6 +17570,11 @@
       <c r="P276">
         <v>275</v>
       </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2">
@@ -16630,6 +17635,11 @@
       <c r="P277">
         <v>276</v>
       </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2">
@@ -16690,6 +17700,11 @@
       <c r="P278">
         <v>277</v>
       </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
@@ -16750,6 +17765,11 @@
       <c r="P279">
         <v>278</v>
       </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
@@ -16810,6 +17830,11 @@
       <c r="P280">
         <v>279</v>
       </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
@@ -16925,6 +17950,11 @@
       <c r="P282">
         <v>281</v>
       </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
@@ -17040,6 +18070,11 @@
       <c r="P284">
         <v>283</v>
       </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
@@ -17100,6 +18135,11 @@
       <c r="P285">
         <v>284</v>
       </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
@@ -17160,6 +18200,11 @@
       <c r="P286">
         <v>285</v>
       </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
@@ -17220,6 +18265,11 @@
       <c r="P287">
         <v>286</v>
       </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
@@ -17280,6 +18330,11 @@
       <c r="P288">
         <v>287</v>
       </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
@@ -17340,6 +18395,11 @@
       <c r="P289">
         <v>288</v>
       </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
@@ -17400,6 +18460,11 @@
       <c r="P290">
         <v>289</v>
       </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
@@ -17570,6 +18635,11 @@
       <c r="P293">
         <v>292</v>
       </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
@@ -17630,6 +18700,11 @@
       <c r="P294">
         <v>293</v>
       </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2">
@@ -17690,6 +18765,11 @@
       <c r="P295">
         <v>294</v>
       </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2">
@@ -17750,6 +18830,11 @@
       <c r="P296">
         <v>295</v>
       </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2">
@@ -17810,6 +18895,11 @@
       <c r="P297">
         <v>296</v>
       </c>
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
@@ -17870,6 +18960,11 @@
       <c r="P298">
         <v>297</v>
       </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
@@ -17985,6 +19080,11 @@
       <c r="P300">
         <v>299</v>
       </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2">
@@ -18100,6 +19200,11 @@
       <c r="P302">
         <v>301</v>
       </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2">
@@ -18160,6 +19265,11 @@
       <c r="P303">
         <v>302</v>
       </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2">
@@ -18220,6 +19330,11 @@
       <c r="P304">
         <v>303</v>
       </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2">
@@ -18280,6 +19395,11 @@
       <c r="P305">
         <v>304</v>
       </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2">
@@ -18340,6 +19460,11 @@
       <c r="P306">
         <v>305</v>
       </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2">
@@ -18400,6 +19525,11 @@
       <c r="P307">
         <v>306</v>
       </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2">
@@ -18460,6 +19590,11 @@
       <c r="P308">
         <v>307</v>
       </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2">
@@ -18630,6 +19765,11 @@
       <c r="P311">
         <v>310</v>
       </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2">
@@ -18690,6 +19830,11 @@
       <c r="P312">
         <v>311</v>
       </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2">
@@ -18750,6 +19895,11 @@
       <c r="P313">
         <v>312</v>
       </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2">
@@ -18810,6 +19960,11 @@
       <c r="P314">
         <v>313</v>
       </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2">
@@ -18870,6 +20025,11 @@
       <c r="P315">
         <v>314</v>
       </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2">
@@ -18930,6 +20090,11 @@
       <c r="P316">
         <v>315</v>
       </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2">
@@ -18990,6 +20155,11 @@
       <c r="P317">
         <v>316</v>
       </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2">
@@ -19050,6 +20220,11 @@
       <c r="P318">
         <v>317</v>
       </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2">
@@ -19110,6 +20285,11 @@
       <c r="P319">
         <v>318</v>
       </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2">
@@ -19170,6 +20350,11 @@
       <c r="P320">
         <v>319</v>
       </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2">
@@ -19230,6 +20415,11 @@
       <c r="P321">
         <v>320</v>
       </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2">
@@ -19290,6 +20480,11 @@
       <c r="P322">
         <v>321</v>
       </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2">
@@ -19350,6 +20545,11 @@
       <c r="P323">
         <v>322</v>
       </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2">
@@ -19410,6 +20610,11 @@
       <c r="P324">
         <v>323</v>
       </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2">
@@ -19470,6 +20675,11 @@
       <c r="P325">
         <v>324</v>
       </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2">
@@ -19585,6 +20795,11 @@
       <c r="P327">
         <v>326</v>
       </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2">
@@ -19645,6 +20860,11 @@
       <c r="P328">
         <v>327</v>
       </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2">
@@ -19705,6 +20925,11 @@
       <c r="P329">
         <v>328</v>
       </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2">
@@ -19765,6 +20990,11 @@
       <c r="P330">
         <v>329</v>
       </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2">
@@ -19825,6 +21055,11 @@
       <c r="P331">
         <v>330</v>
       </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2">
@@ -19885,6 +21120,11 @@
       <c r="P332">
         <v>331</v>
       </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2">
@@ -19945,6 +21185,11 @@
       <c r="P333">
         <v>332</v>
       </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2">
@@ -20005,6 +21250,11 @@
       <c r="P334">
         <v>333</v>
       </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2">
@@ -20065,6 +21315,11 @@
       <c r="P335">
         <v>334</v>
       </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2">
@@ -20125,6 +21380,11 @@
       <c r="P336">
         <v>335</v>
       </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2">
@@ -20185,6 +21445,11 @@
       <c r="P337">
         <v>336</v>
       </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2">
@@ -20245,6 +21510,11 @@
       <c r="P338">
         <v>337</v>
       </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2">
@@ -20360,6 +21630,11 @@
       <c r="P340">
         <v>339</v>
       </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2">
@@ -20475,6 +21750,11 @@
       <c r="P342">
         <v>341</v>
       </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2">
@@ -20535,6 +21815,11 @@
       <c r="P343">
         <v>342</v>
       </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2">
@@ -20760,6 +22045,11 @@
       <c r="P347">
         <v>346</v>
       </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2">
@@ -20820,6 +22110,11 @@
       <c r="P348">
         <v>347</v>
       </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2">
@@ -20880,6 +22175,11 @@
       <c r="P349">
         <v>348</v>
       </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2">
@@ -20940,6 +22240,11 @@
       <c r="P350">
         <v>349</v>
       </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2">
@@ -21000,6 +22305,11 @@
       <c r="P351">
         <v>350</v>
       </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2">
@@ -21060,6 +22370,11 @@
       <c r="P352">
         <v>351</v>
       </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2">
@@ -21175,6 +22490,11 @@
       <c r="P354">
         <v>353</v>
       </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2">
@@ -21235,6 +22555,11 @@
       <c r="P355">
         <v>354</v>
       </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2">
@@ -21295,6 +22620,11 @@
       <c r="P356">
         <v>355</v>
       </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2">
@@ -21355,6 +22685,11 @@
       <c r="P357">
         <v>356</v>
       </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2">
@@ -21580,6 +22915,11 @@
       <c r="P361">
         <v>360</v>
       </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2">
@@ -21640,6 +22980,11 @@
       <c r="P362">
         <v>361</v>
       </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2">
@@ -21700,6 +23045,11 @@
       <c r="P363">
         <v>362</v>
       </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2">
@@ -21760,6 +23110,11 @@
       <c r="P364">
         <v>363</v>
       </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2">
@@ -21820,6 +23175,11 @@
       <c r="P365">
         <v>364</v>
       </c>
+      <c r="Q365" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2">
@@ -21880,6 +23240,11 @@
       <c r="P366">
         <v>365</v>
       </c>
+      <c r="Q366" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2">
@@ -22325,6 +23690,11 @@
       <c r="P374">
         <v>373</v>
       </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2">
@@ -22385,6 +23755,11 @@
       <c r="P375">
         <v>374</v>
       </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2">
@@ -22887,6 +24262,11 @@
       <c r="P384">
         <v>383</v>
       </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2">
@@ -22947,6 +24327,11 @@
       <c r="P385">
         <v>384</v>
       </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2">
@@ -23007,6 +24392,11 @@
       <c r="P386">
         <v>385</v>
       </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2">
@@ -23067,6 +24457,11 @@
       <c r="P387">
         <v>386</v>
       </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2">
@@ -23127,6 +24522,11 @@
       <c r="P388">
         <v>387</v>
       </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2">
@@ -23187,6 +24587,11 @@
       <c r="P389">
         <v>388</v>
       </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2">
@@ -23247,6 +24652,11 @@
       <c r="P390">
         <v>389</v>
       </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2">
@@ -23527,6 +24937,11 @@
       <c r="P395">
         <v>394</v>
       </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2">
@@ -23697,6 +25112,11 @@
       <c r="P398">
         <v>397</v>
       </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2">
@@ -23867,6 +25287,11 @@
       <c r="P401">
         <v>400</v>
       </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2">
@@ -23927,6 +25352,11 @@
       <c r="P402">
         <v>401</v>
       </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2">
@@ -23987,6 +25417,11 @@
       <c r="P403">
         <v>402</v>
       </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2">
@@ -24047,6 +25482,11 @@
       <c r="P404">
         <v>403</v>
       </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2">
@@ -24162,6 +25602,11 @@
       <c r="P406">
         <v>405</v>
       </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2">
@@ -24277,6 +25722,11 @@
       <c r="P408">
         <v>407</v>
       </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2">
@@ -24337,6 +25787,11 @@
       <c r="P409">
         <v>408</v>
       </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2">
@@ -24397,6 +25852,11 @@
       <c r="P410">
         <v>409</v>
       </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2">
@@ -24457,6 +25917,11 @@
       <c r="P411">
         <v>410</v>
       </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2">
@@ -24517,6 +25982,11 @@
       <c r="P412">
         <v>411</v>
       </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2">
@@ -24577,6 +26047,11 @@
       <c r="P413">
         <v>412</v>
       </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2">
@@ -24637,6 +26112,11 @@
       <c r="P414">
         <v>413</v>
       </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2">
@@ -24697,6 +26177,11 @@
       <c r="P415">
         <v>414</v>
       </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2">
@@ -24757,6 +26242,11 @@
       <c r="P416">
         <v>415</v>
       </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2">
@@ -24927,6 +26417,11 @@
       <c r="P419">
         <v>418</v>
       </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2">
@@ -24987,6 +26482,11 @@
       <c r="P420">
         <v>419</v>
       </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2">
@@ -25047,6 +26547,11 @@
       <c r="P421">
         <v>420</v>
       </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2">
@@ -25107,6 +26612,11 @@
       <c r="P422">
         <v>421</v>
       </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2">
@@ -25167,6 +26677,11 @@
       <c r="P423">
         <v>422</v>
       </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2">
@@ -25282,6 +26797,11 @@
       <c r="P425">
         <v>424</v>
       </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2">
@@ -25397,6 +26917,11 @@
       <c r="P427">
         <v>426</v>
       </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2">
@@ -25512,6 +27037,11 @@
       <c r="P429">
         <v>428</v>
       </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2">
@@ -25572,6 +27102,11 @@
       <c r="P430">
         <v>429</v>
       </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2">
@@ -25687,6 +27222,11 @@
       <c r="P432">
         <v>431</v>
       </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2">
@@ -25747,6 +27287,11 @@
       <c r="P433">
         <v>432</v>
       </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2">
@@ -25862,6 +27407,11 @@
       <c r="P435">
         <v>434</v>
       </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2">
@@ -25922,6 +27472,11 @@
       <c r="P436">
         <v>435</v>
       </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2">
@@ -26037,6 +27592,11 @@
       <c r="P438">
         <v>437</v>
       </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2">
@@ -26097,6 +27657,11 @@
       <c r="P439">
         <v>438</v>
       </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2">
@@ -26212,6 +27777,11 @@
       <c r="P441">
         <v>440</v>
       </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2">
@@ -26272,6 +27842,11 @@
       <c r="P442">
         <v>441</v>
       </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2">
@@ -26332,6 +27907,11 @@
       <c r="P443">
         <v>442</v>
       </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2">
@@ -26447,6 +28027,11 @@
       <c r="P445">
         <v>444</v>
       </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2">
@@ -26507,6 +28092,11 @@
       <c r="P446">
         <v>445</v>
       </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2">
@@ -26567,6 +28157,11 @@
       <c r="P447">
         <v>446</v>
       </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2">
@@ -26627,6 +28222,11 @@
       <c r="P448">
         <v>447</v>
       </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2">
@@ -26797,6 +28397,11 @@
       <c r="P451">
         <v>450</v>
       </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2">
@@ -26857,6 +28462,11 @@
       <c r="P452">
         <v>451</v>
       </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2">
@@ -26917,6 +28527,11 @@
       <c r="P453">
         <v>452</v>
       </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2">
@@ -26977,6 +28592,11 @@
       <c r="P454">
         <v>453</v>
       </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2">
@@ -27202,6 +28822,11 @@
       <c r="P458">
         <v>457</v>
       </c>
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2">
@@ -27262,6 +28887,11 @@
       <c r="P459">
         <v>458</v>
       </c>
+      <c r="Q459" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2">
@@ -27322,6 +28952,11 @@
       <c r="P460">
         <v>459</v>
       </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2">
@@ -27382,6 +29017,11 @@
       <c r="P461">
         <v>460</v>
       </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2">
@@ -27552,6 +29192,11 @@
       <c r="P464">
         <v>463</v>
       </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2">
@@ -27612,6 +29257,11 @@
       <c r="P465">
         <v>464</v>
       </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2">
@@ -27727,6 +29377,11 @@
       <c r="P467">
         <v>466</v>
       </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2">
@@ -27787,6 +29442,11 @@
       <c r="P468">
         <v>467</v>
       </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2">
@@ -27847,6 +29507,11 @@
       <c r="P469">
         <v>468</v>
       </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2">
@@ -27962,6 +29627,11 @@
       <c r="P471">
         <v>470</v>
       </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2">
@@ -28022,6 +29692,11 @@
       <c r="P472">
         <v>471</v>
       </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2">
@@ -28082,6 +29757,11 @@
       <c r="P473">
         <v>472</v>
       </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2">
@@ -28142,6 +29822,11 @@
       <c r="P474">
         <v>473</v>
       </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2">
@@ -28202,6 +29887,11 @@
       <c r="P475">
         <v>474</v>
       </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2">
@@ -28317,6 +30007,11 @@
       <c r="P477">
         <v>476</v>
       </c>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2">
@@ -28377,6 +30072,11 @@
       <c r="P478">
         <v>477</v>
       </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2">
@@ -28492,6 +30192,11 @@
       <c r="P480">
         <v>479</v>
       </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2">
@@ -28552,6 +30257,11 @@
       <c r="P481">
         <v>480</v>
       </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2">
@@ -28612,6 +30322,11 @@
       <c r="P482">
         <v>481</v>
       </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2">
@@ -28672,6 +30387,11 @@
       <c r="P483">
         <v>482</v>
       </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2">
@@ -28732,6 +30452,11 @@
       <c r="P484">
         <v>483</v>
       </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2">
@@ -28792,6 +30517,11 @@
       <c r="P485">
         <v>484</v>
       </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2">
@@ -28852,6 +30582,11 @@
       <c r="P486">
         <v>485</v>
       </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2">
@@ -28912,6 +30647,11 @@
       <c r="P487">
         <v>486</v>
       </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2">
@@ -28972,6 +30712,11 @@
       <c r="P488">
         <v>487</v>
       </c>
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2">
@@ -29032,6 +30777,11 @@
       <c r="P489">
         <v>488</v>
       </c>
+      <c r="Q489" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2">
@@ -29092,6 +30842,11 @@
       <c r="P490">
         <v>489</v>
       </c>
+      <c r="Q490" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2">
@@ -29152,6 +30907,11 @@
       <c r="P491">
         <v>490</v>
       </c>
+      <c r="Q491" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2">
@@ -29212,6 +30972,11 @@
       <c r="P492">
         <v>491</v>
       </c>
+      <c r="Q492" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2">
@@ -29272,6 +31037,11 @@
       <c r="P493">
         <v>492</v>
       </c>
+      <c r="Q493" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2">
@@ -29442,6 +31212,11 @@
       <c r="P496">
         <v>495</v>
       </c>
+      <c r="Q496" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2">
@@ -29557,6 +31332,11 @@
       <c r="P498">
         <v>497</v>
       </c>
+      <c r="Q498" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2">
@@ -29617,6 +31397,11 @@
       <c r="P499">
         <v>498</v>
       </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2">
@@ -29677,6 +31462,11 @@
       <c r="P500">
         <v>499</v>
       </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2">
@@ -29737,6 +31527,11 @@
       <c r="P501">
         <v>500</v>
       </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2">
@@ -29797,6 +31592,11 @@
       <c r="P502">
         <v>501</v>
       </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2">
@@ -29857,6 +31657,11 @@
       <c r="P503">
         <v>502</v>
       </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2">
@@ -29917,6 +31722,11 @@
       <c r="P504">
         <v>503</v>
       </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2">
@@ -29977,6 +31787,11 @@
       <c r="P505">
         <v>504</v>
       </c>
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2">
@@ -30092,6 +31907,11 @@
       <c r="P507">
         <v>506</v>
       </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2">
@@ -30152,6 +31972,11 @@
       <c r="P508">
         <v>507</v>
       </c>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2">
@@ -30212,6 +32037,11 @@
       <c r="P509">
         <v>508</v>
       </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2">
@@ -30327,6 +32157,11 @@
       <c r="P511">
         <v>510</v>
       </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2">
@@ -30387,6 +32222,11 @@
       <c r="P512">
         <v>511</v>
       </c>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2">
@@ -30502,6 +32342,11 @@
       <c r="P514">
         <v>513</v>
       </c>
+      <c r="Q514" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2">
@@ -30562,6 +32407,11 @@
       <c r="P515">
         <v>514</v>
       </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2">
@@ -30622,6 +32472,11 @@
       <c r="P516">
         <v>515</v>
       </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2">
@@ -30682,6 +32537,11 @@
       <c r="P517">
         <v>516</v>
       </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2">
@@ -30742,6 +32602,11 @@
       <c r="P518">
         <v>517</v>
       </c>
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2">
@@ -30802,6 +32667,11 @@
       <c r="P519">
         <v>518</v>
       </c>
+      <c r="Q519" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2">
@@ -30862,6 +32732,11 @@
       <c r="P520">
         <v>519</v>
       </c>
+      <c r="Q520" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2">
@@ -30922,6 +32797,11 @@
       <c r="P521">
         <v>520</v>
       </c>
+      <c r="Q521" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2">
@@ -30982,6 +32862,11 @@
       <c r="P522">
         <v>521</v>
       </c>
+      <c r="Q522" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2">
@@ -31042,6 +32927,11 @@
       <c r="P523">
         <v>522</v>
       </c>
+      <c r="Q523" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2">
@@ -31157,6 +33047,11 @@
       <c r="P525">
         <v>524</v>
       </c>
+      <c r="Q525" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2">
@@ -31217,6 +33112,11 @@
       <c r="P526">
         <v>525</v>
       </c>
+      <c r="Q526" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2">
@@ -31277,6 +33177,11 @@
       <c r="P527">
         <v>526</v>
       </c>
+      <c r="Q527" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2">
@@ -31392,6 +33297,11 @@
       <c r="P529">
         <v>528</v>
       </c>
+      <c r="Q529" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2">
@@ -31452,6 +33362,11 @@
       <c r="P530">
         <v>529</v>
       </c>
+      <c r="Q530" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2">
@@ -31567,6 +33482,11 @@
       <c r="P532">
         <v>531</v>
       </c>
+      <c r="Q532" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2">
@@ -31627,6 +33547,11 @@
       <c r="P533">
         <v>532</v>
       </c>
+      <c r="Q533" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2">
@@ -31687,6 +33612,11 @@
       <c r="P534">
         <v>533</v>
       </c>
+      <c r="Q534" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2">
@@ -31747,6 +33677,11 @@
       <c r="P535">
         <v>534</v>
       </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2">
@@ -31807,6 +33742,11 @@
       <c r="P536">
         <v>535</v>
       </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2">
@@ -31922,6 +33862,11 @@
       <c r="P538">
         <v>537</v>
       </c>
+      <c r="Q538" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2">
@@ -31982,6 +33927,11 @@
       <c r="P539">
         <v>538</v>
       </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2">
@@ -32097,6 +34047,11 @@
       <c r="P541">
         <v>540</v>
       </c>
+      <c r="Q541" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2">
@@ -32157,6 +34112,11 @@
       <c r="P542">
         <v>541</v>
       </c>
+      <c r="Q542" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2">
@@ -32217,6 +34177,11 @@
       <c r="P543">
         <v>542</v>
       </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2">
@@ -32277,6 +34242,11 @@
       <c r="P544">
         <v>543</v>
       </c>
+      <c r="Q544" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2">
@@ -32337,6 +34307,11 @@
       <c r="P545">
         <v>544</v>
       </c>
+      <c r="Q545" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2">
@@ -32452,6 +34427,11 @@
       <c r="P547">
         <v>546</v>
       </c>
+      <c r="Q547" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2">
@@ -32512,6 +34492,11 @@
       <c r="P548">
         <v>547</v>
       </c>
+      <c r="Q548" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2">
@@ -32737,6 +34722,11 @@
       <c r="P552">
         <v>551</v>
       </c>
+      <c r="Q552" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2">
@@ -32797,6 +34787,11 @@
       <c r="P553">
         <v>552</v>
       </c>
+      <c r="Q553" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2">
@@ -32912,6 +34907,11 @@
       <c r="P555">
         <v>554</v>
       </c>
+      <c r="Q555" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2">
@@ -32972,6 +34972,11 @@
       <c r="P556">
         <v>555</v>
       </c>
+      <c r="Q556" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2">
@@ -33032,6 +35037,11 @@
       <c r="P557">
         <v>556</v>
       </c>
+      <c r="Q557" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2">
@@ -33091,6 +35101,11 @@
       </c>
       <c r="P558">
         <v>557</v>
+      </c>
+      <c r="Q558" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
       </c>
     </row>
   </sheetData>
